--- a/StudentGradesMoodleFormat/Assignment2_Moodle_Grades.xlsx
+++ b/StudentGradesMoodleFormat/Assignment2_Moodle_Grades.xlsx
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>48.3</v>
+        <v>56.23</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>100</v>
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>40.08</v>
+        <v>60.03</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>100</v>
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>40.08</v>
+        <v>60.03</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>100</v>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>70.63</v>
+        <v>75.69</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>100</v>
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>17.75</v>
+        <v>29.7</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>100</v>
@@ -864,7 +864,7 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0</v>
+        <v>12.01</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>100</v>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>14.23</v>
+        <v>21.85</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>100</v>
@@ -1148,7 +1148,7 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>48.3</v>
+        <v>56.23</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>100</v>
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>14.23</v>
+        <v>21.85</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>100</v>
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>70.63</v>
+        <v>86.91</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>100</v>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="H24" s="3" t="inlineStr">
         <is>
-          <t>Good work! Continue improving based on recommendations.</t>
+          <t>Excellence! Outstanding work across almost all skills. Keep up the great work!</t>
         </is>
       </c>
     </row>

--- a/StudentGradesMoodleFormat/Assignment2_Moodle_Grades.xlsx
+++ b/StudentGradesMoodleFormat/Assignment2_Moodle_Grades.xlsx
@@ -1148,7 +1148,7 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>56.23</v>
+        <v>58.44</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>100</v>

--- a/StudentGradesMoodleFormat/Assignment2_Moodle_Grades.xlsx
+++ b/StudentGradesMoodleFormat/Assignment2_Moodle_Grades.xlsx
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>58.66</v>
+        <v>62.83</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>100</v>

--- a/StudentGradesMoodleFormat/Assignment2_Moodle_Grades.xlsx
+++ b/StudentGradesMoodleFormat/Assignment2_Moodle_Grades.xlsx
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>62.83</v>
+        <v>64.91220900398571</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>100</v>
@@ -1148,7 +1148,7 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>58.44</v>
+        <v>60.64776531782864</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>100</v>

--- a/StudentGradesMoodleFormat/Assignment2_Moodle_Grades.xlsx
+++ b/StudentGradesMoodleFormat/Assignment2_Moodle_Grades.xlsx
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>64.91220900398571</v>
+        <v>68.03772334967967</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>100</v>

--- a/StudentGradesMoodleFormat/Assignment2_Moodle_Grades.xlsx
+++ b/StudentGradesMoodleFormat/Assignment2_Moodle_Grades.xlsx
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>56.23</v>
+        <v>60.64776531782864</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>100</v>
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>60.03</v>
+        <v>67.02237126211561</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>100</v>
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>60.03</v>
+        <v>67.02237126211561</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>100</v>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>75.69</v>
+        <v>84.66243092374654</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>100</v>
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>29.7</v>
+        <v>32.96269956291068</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>100</v>
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>55.35</v>
+        <v>55.3506518718915</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>100</v>
@@ -864,7 +864,7 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>12.01</v>
+        <v>15.04705546591035</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>100</v>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>29.5</v>
+        <v>31.85099496236071</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>100</v>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>55.35</v>
+        <v>55.3506518718915</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>100</v>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>21.85</v>
+        <v>21.85298835372897</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>100</v>
@@ -1067,7 +1067,7 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>24.8</v>
+        <v>23.62611504402493</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>100</v>
@@ -1229,7 +1229,7 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>24.8</v>
+        <v>23.62611504402493</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>100</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>29.5</v>
+        <v>31.85099496236071</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>100</v>
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>29.5</v>
+        <v>31.85099496236071</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>100</v>
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>21.85</v>
+        <v>21.85298835372897</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>100</v>
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>86.91</v>
+        <v>84.66243092374654</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>100</v>

--- a/StudentGradesMoodleFormat/Assignment2_Moodle_Grades.xlsx
+++ b/StudentGradesMoodleFormat/Assignment2_Moodle_Grades.xlsx
@@ -516,21 +516,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>Testing Quality (0.0/10)
-Research Analysis (0.0/10)
+          <t>Research Analysis (0.0/10)
+Testing Quality (0.0/10)
 Project Planning (0.0/10)
-Address Testing Quality (0/10 points)
-Address Research Analysis (0/10 points)</t>
+Address Research Analysis (0/10 points)
+Address Testing Quality (0/10 points)</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>60.64776531782864</v>
+        <v>60.65</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>100</v>
@@ -558,12 +558,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr">
@@ -597,21 +597,21 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
           <t>Research Analysis (0.0/10)
-Extensibility (3.0/10)
+Project Planning (0.0/10)
 Testing Quality (0.0/10)
 Address Research Analysis (0/10 points)
-Address Testing Quality (0/10 points)</t>
+Address Project Planning (0/10 points)</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>67.02237126211561</v>
+        <v>67.02</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>100</v>
@@ -639,17 +639,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>Quality Standards (2.0/10)
+          <t>Quality Standards (3.5/10)
 Config Security (4.0/10)</t>
         </is>
       </c>
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>67.02237126211561</v>
+        <v>67.02</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>100</v>
@@ -678,17 +678,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>Quality Standards (2.0/10)
+          <t>Quality Standards (3.5/10)
 Config Security (4.0/10)</t>
         </is>
       </c>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>84.66243092374654</v>
+        <v>84.66</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>100</v>
@@ -717,12 +717,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H7" s="3" t="inlineStr">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>32.96269956291068</v>
+        <v>32.96</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>100</v>
@@ -755,21 +755,20 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
           <t>Ui Ux (4.0/10)
+Quality Standards (1.5/10)
 Extensibility (0.0/10)
-Quality Standards (0.0/10)
-Address Extensibility (0/10 points)
-Address Quality Standards (0/10 points)</t>
+Address Extensibility (0/10 points)</t>
         </is>
       </c>
     </row>
@@ -785,7 +784,7 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>68.03772334967967</v>
+        <v>68.04000000000001</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>100</v>
@@ -797,19 +796,18 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>Extensibility (1.0/10)
-Quality Standards (0.0/10)
-Address Quality Standards (0/10 points)</t>
+          <t>Extensibility (4.0/10)
+Quality Standards (1.5/10)</t>
         </is>
       </c>
     </row>
@@ -825,7 +823,7 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>55.3506518718915</v>
+        <v>55.35</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>100</v>
@@ -837,12 +835,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H10" s="3" t="inlineStr">
@@ -864,7 +862,7 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>15.04705546591035</v>
+        <v>15.05</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>100</v>
@@ -876,20 +874,19 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
           <t>Ui Ux (2.0/10)
-Extensibility (3.0/10)
-Quality Standards (0.0/10)
-Address Quality Standards (0/10 points)</t>
+Quality Standards (1.5/10)
+Extensibility (3.0/10)</t>
         </is>
       </c>
     </row>
@@ -905,7 +902,7 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>31.85099496236071</v>
+        <v>31.85</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>100</v>
@@ -917,19 +914,18 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>Extensibility (0.0/10)
-Quality Standards (0.0/10)
-Address Extensibility (0/10 points)
+          <t>Quality Standards (0.0/10)
+Extensibility (1.0/10)
 Address Quality Standards (0/10 points)</t>
         </is>
       </c>
@@ -958,19 +954,19 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H13" s="3" t="inlineStr">
         <is>
-          <t>Ui Ux (2.0/10)
-Extensibility (3.0/10)
-Testing Quality (0.0/10)
+          <t>Testing Quality (0.0/10)
+Ui Ux (2.0/10)
+Quality Standards (0.0/10)
 Address Testing Quality (0/10 points)
 Address Quality Standards (0/10 points)</t>
         </is>
@@ -988,7 +984,7 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>55.3506518718915</v>
+        <v>55.35</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>100</v>
@@ -1000,12 +996,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H14" s="3" t="inlineStr">
@@ -1027,7 +1023,7 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>21.85298835372897</v>
+        <v>21.85</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>100</v>
@@ -1039,18 +1035,18 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t>Extensibility (0.0/10)
-Quality Standards (2.0/10)
+          <t>Quality Standards (2.0/10)
+Extensibility (0.0/10)
 Address Extensibility (0/10 points)</t>
         </is>
       </c>
@@ -1067,7 +1063,7 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>23.62611504402493</v>
+        <v>23.63</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>100</v>
@@ -1079,12 +1075,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr">
@@ -1119,20 +1115,19 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H17" s="3" t="inlineStr">
         <is>
           <t>Ui Ux (2.0/10)
-Extensibility (3.0/10)
-Quality Standards (0.0/10)
-Address Quality Standards (0/10 points)</t>
+Quality Standards (1.5/10)
+Extensibility (3.0/10)</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1143,7 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>60.64776531782864</v>
+        <v>60.65</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>100</v>
@@ -1160,12 +1155,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H18" s="3" t="inlineStr">
@@ -1199,19 +1194,19 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t>Extensibility (3.0/10)
+          <t>Testing Quality (0.0/10)
 Ui Ux (2.0/10)
-Testing Quality (0.0/10)
+Extensibility (3.0/10)
 Address Testing Quality (0/10 points)
 Address Quality Standards (0/10 points)</t>
         </is>
@@ -1229,7 +1224,7 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>23.62611504402493</v>
+        <v>23.63</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>100</v>
@@ -1241,12 +1236,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H20" s="3" t="inlineStr">
@@ -1269,7 +1264,7 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>31.85099496236071</v>
+        <v>31.85</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>100</v>
@@ -1281,19 +1276,18 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H21" s="3" t="inlineStr">
         <is>
-          <t>Extensibility (0.0/10)
-Quality Standards (0.0/10)
-Address Extensibility (0/10 points)
+          <t>Quality Standards (0.0/10)
+Extensibility (1.0/10)
 Address Quality Standards (0/10 points)</t>
         </is>
       </c>
@@ -1310,7 +1304,7 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>31.85099496236071</v>
+        <v>31.85</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>100</v>
@@ -1322,19 +1316,18 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H22" s="3" t="inlineStr">
         <is>
-          <t>Extensibility (0.0/10)
-Quality Standards (0.0/10)
-Address Extensibility (0/10 points)
+          <t>Quality Standards (0.0/10)
+Extensibility (1.0/10)
 Address Quality Standards (0/10 points)</t>
         </is>
       </c>
@@ -1351,7 +1344,7 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>21.85298835372897</v>
+        <v>21.85</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>100</v>
@@ -1363,18 +1356,18 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H23" s="3" t="inlineStr">
         <is>
-          <t>Extensibility (0.0/10)
-Quality Standards (2.0/10)
+          <t>Quality Standards (2.0/10)
+Extensibility (0.0/10)
 Address Extensibility (0/10 points)</t>
         </is>
       </c>
@@ -1391,7 +1384,7 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>84.66243092374654</v>
+        <v>84.66</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>100</v>
@@ -1403,17 +1396,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H24" s="3" t="inlineStr">
         <is>
-          <t>Excellence! Outstanding work across almost all skills. Keep up the great work!</t>
+          <t>Good work! Continue improving based on recommendations.</t>
         </is>
       </c>
     </row>
